--- a/biology/Histoire de la zoologie et de la botanique/Johann_August_Ephraim_Goeze/Johann_August_Ephraim_Goeze.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Johann_August_Ephraim_Goeze/Johann_August_Ephraim_Goeze.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Johann August Ephraim Goeze est un zoologiste, né le 28 mai 1731 à Aschersleben et mort le 27 juin 1793 à Quedlinburg.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils de Johann Heinrich et de Catherine Margarete née à Kirchhoff. Il étudie la théologie à Halle. Il se marie avec Leopoldine Maria Keller en 1770, union dont naîtra quatre enfants. Il devient pasteur à Quedlinburg en 1751, puis est nommé à l’église Saint-Basile de Quedlinburg en 1762. Il devient premier diacre au séminaire de Quedlinburg en 1787.
 Goeze fait notamment paraître D. Martin Listers,... Naturgeschichte der Spinnen überhaupt und der engelländischen Spinnen insonderheit aus dem Lateinischen übersesst, und mit Anmerkungen vermehrt von D. Friedrich Heinrich Wilhelm Martini ; nach dessen Handschrift aber zum Druck besördert, und mit neuen Zufässen versehen von Johann August Ephraim Goeze (Christoph August Reussner, Quedlinburg, 1778). Il s’intéresse notamment aux invertébrés aquatiques notamment les insectes, les vers et est le premier à décrire les tardigrades en 1773.
@@ -543,7 +557,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Herrn Karl Bonnets Abhandlungen aus der Insektologie. Halle: Bey J.J. Gebauers Wittwe und Joh. Jac. Gebauer, 1773.
 Entomologische Beyträge zu des Ritter Linné zwölften Ausgabe des Natursystems. Leipzig : Weidmann [u.a.], 1777-1783.
@@ -585,7 +601,9 @@
           <t>Espèces décrites par Goeze</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Parmi les espèces décrites pour la première fois par Goeze, on peut mentionner:
 Ascaris suum, Dioctophyme renale, Uncinaria criniformis, des nématodes;
@@ -642,7 +660,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Allen G. Debus (dir.) (1968). World Who’s Who in Science. A Biographical Dictionary of Notable Scientists from Antiquity to the Present. Marquis-Who’s Who (Chicago) : xvi + 1855 p.
 Notices d'autorité : VIAF ISNI BnF (données) IdRef LCCN GND Italie Pays-Bas Pologne Israël NUKAT Suède Tchéquie Grèce WorldCat 
